--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1344407.3818491</v>
+        <v>1339995.249261261</v>
       </c>
     </row>
     <row r="7">
@@ -23513,7 +23513,7 @@
         <v>248.2135032360649</v>
       </c>
       <c r="I14" t="n">
-        <v>119.2145906907037</v>
+        <v>119.2145906907036</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.60781906144743</v>
+        <v>58.60781906144742</v>
       </c>
       <c r="S14" t="n">
         <v>117.7587707065431</v>
@@ -23552,7 +23552,7 @@
         <v>160.0843540281342</v>
       </c>
       <c r="V14" t="n">
-        <v>236.4909595904327</v>
+        <v>236.4909595904326</v>
       </c>
       <c r="W14" t="n">
         <v>257.9796698377107</v>
@@ -23561,7 +23561,7 @@
         <v>278.4698017987668</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.9766397763514</v>
+        <v>294.9766397763513</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.27188477016509</v>
+        <v>75.27188477016507</v>
       </c>
       <c r="C15" t="n">
-        <v>81.44720010861349</v>
+        <v>81.44720010861347</v>
       </c>
       <c r="D15" t="n">
-        <v>56.1837666849365</v>
+        <v>56.18376668493649</v>
       </c>
       <c r="E15" t="n">
-        <v>66.38378157569869</v>
+        <v>66.38378157569868</v>
       </c>
       <c r="F15" t="n">
-        <v>53.80791351368163</v>
+        <v>53.80791351368161</v>
       </c>
       <c r="G15" t="n">
-        <v>46.08221828350838</v>
+        <v>46.08221828350837</v>
       </c>
       <c r="H15" t="n">
-        <v>20.97414535679421</v>
+        <v>20.9741453567942</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.896535272940881</v>
+        <v>8.896535272940866</v>
       </c>
       <c r="S15" t="n">
-        <v>80.42187222413557</v>
+        <v>80.42187222413556</v>
       </c>
       <c r="T15" t="n">
-        <v>108.9034298151194</v>
+        <v>108.9034298151193</v>
       </c>
       <c r="U15" t="n">
         <v>134.6800832012726</v>
@@ -23634,7 +23634,7 @@
         <v>141.539288269723</v>
       </c>
       <c r="W15" t="n">
-        <v>160.4336842812174</v>
+        <v>160.4336842812173</v>
       </c>
       <c r="X15" t="n">
         <v>114.5116863237752</v>
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.57068130223504</v>
+        <v>88.57068130223503</v>
       </c>
       <c r="C16" t="n">
-        <v>75.98552221892558</v>
+        <v>75.98552221892557</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3541741385101</v>
+        <v>57.35417413851009</v>
       </c>
       <c r="E16" t="n">
-        <v>55.17266376686692</v>
+        <v>55.1726637668669</v>
       </c>
       <c r="F16" t="n">
-        <v>54.15974914322899</v>
+        <v>54.15974914322898</v>
       </c>
       <c r="G16" t="n">
-        <v>76.72968047875651</v>
+        <v>76.72968047875649</v>
       </c>
       <c r="H16" t="n">
-        <v>70.96587362773732</v>
+        <v>70.96587362773731</v>
       </c>
       <c r="I16" t="n">
-        <v>64.18917604755603</v>
+        <v>64.18917604755602</v>
       </c>
       <c r="J16" t="n">
-        <v>2.097881236970522</v>
+        <v>2.097881236970508</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>86.03209249746723</v>
+        <v>86.03209249746722</v>
       </c>
       <c r="S16" t="n">
         <v>132.75529915727</v>
@@ -23750,7 +23750,7 @@
         <v>248.2135032360649</v>
       </c>
       <c r="I17" t="n">
-        <v>119.2145906907037</v>
+        <v>119.2145906907036</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.60781906144743</v>
+        <v>58.60781906144742</v>
       </c>
       <c r="S17" t="n">
         <v>117.7587707065431</v>
@@ -23789,7 +23789,7 @@
         <v>160.0843540281342</v>
       </c>
       <c r="V17" t="n">
-        <v>236.4909595904327</v>
+        <v>236.4909595904326</v>
       </c>
       <c r="W17" t="n">
         <v>257.9796698377107</v>
@@ -23798,7 +23798,7 @@
         <v>278.4698017987668</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.9766397763514</v>
+        <v>294.9766397763513</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.27188477016509</v>
+        <v>75.27188477016507</v>
       </c>
       <c r="C18" t="n">
-        <v>81.44720010861349</v>
+        <v>81.44720010861347</v>
       </c>
       <c r="D18" t="n">
-        <v>56.1837666849365</v>
+        <v>56.18376668493649</v>
       </c>
       <c r="E18" t="n">
-        <v>66.38378157569869</v>
+        <v>66.38378157569868</v>
       </c>
       <c r="F18" t="n">
-        <v>53.80791351368163</v>
+        <v>53.80791351368161</v>
       </c>
       <c r="G18" t="n">
-        <v>46.08221828350838</v>
+        <v>46.08221828350837</v>
       </c>
       <c r="H18" t="n">
-        <v>20.97414535679421</v>
+        <v>20.9741453567942</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.896535272940881</v>
+        <v>8.896535272940866</v>
       </c>
       <c r="S18" t="n">
-        <v>80.42187222413557</v>
+        <v>80.42187222413556</v>
       </c>
       <c r="T18" t="n">
-        <v>108.9034298151194</v>
+        <v>108.9034298151193</v>
       </c>
       <c r="U18" t="n">
         <v>134.6800832012726</v>
@@ -23871,7 +23871,7 @@
         <v>141.539288269723</v>
       </c>
       <c r="W18" t="n">
-        <v>160.4336842812174</v>
+        <v>160.4336842812173</v>
       </c>
       <c r="X18" t="n">
         <v>114.5116863237752</v>
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.57068130223504</v>
+        <v>88.57068130223503</v>
       </c>
       <c r="C19" t="n">
-        <v>75.98552221892558</v>
+        <v>75.98552221892557</v>
       </c>
       <c r="D19" t="n">
-        <v>57.3541741385101</v>
+        <v>57.35417413851009</v>
       </c>
       <c r="E19" t="n">
-        <v>55.17266376686692</v>
+        <v>55.1726637668669</v>
       </c>
       <c r="F19" t="n">
-        <v>54.15974914322899</v>
+        <v>54.15974914322898</v>
       </c>
       <c r="G19" t="n">
-        <v>76.72968047875651</v>
+        <v>76.72968047875649</v>
       </c>
       <c r="H19" t="n">
-        <v>70.96587362773732</v>
+        <v>70.96587362773731</v>
       </c>
       <c r="I19" t="n">
-        <v>64.18917604755603</v>
+        <v>64.18917604755602</v>
       </c>
       <c r="J19" t="n">
-        <v>2.097881236970522</v>
+        <v>2.097881236970508</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.03209249746723</v>
+        <v>86.03209249746722</v>
       </c>
       <c r="S19" t="n">
         <v>132.75529915727</v>
@@ -23987,7 +23987,7 @@
         <v>248.2135032360649</v>
       </c>
       <c r="I20" t="n">
-        <v>119.2145906907037</v>
+        <v>119.2145906907036</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.60781906144743</v>
+        <v>58.60781906144742</v>
       </c>
       <c r="S20" t="n">
         <v>117.7587707065431</v>
@@ -24026,7 +24026,7 @@
         <v>160.0843540281342</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4909595904327</v>
+        <v>236.4909595904326</v>
       </c>
       <c r="W20" t="n">
         <v>257.9796698377107</v>
@@ -24035,7 +24035,7 @@
         <v>278.4698017987668</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.9766397763514</v>
+        <v>294.9766397763513</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.27188477016509</v>
+        <v>75.27188477016507</v>
       </c>
       <c r="C21" t="n">
-        <v>81.44720010861349</v>
+        <v>81.44720010861347</v>
       </c>
       <c r="D21" t="n">
-        <v>56.1837666849365</v>
+        <v>56.18376668493649</v>
       </c>
       <c r="E21" t="n">
-        <v>66.38378157569869</v>
+        <v>66.38378157569868</v>
       </c>
       <c r="F21" t="n">
-        <v>53.80791351368163</v>
+        <v>53.80791351368161</v>
       </c>
       <c r="G21" t="n">
-        <v>46.08221828350838</v>
+        <v>46.08221828350837</v>
       </c>
       <c r="H21" t="n">
-        <v>20.97414535679421</v>
+        <v>20.9741453567942</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.896535272940881</v>
+        <v>8.896535272940866</v>
       </c>
       <c r="S21" t="n">
-        <v>80.42187222413557</v>
+        <v>80.42187222413556</v>
       </c>
       <c r="T21" t="n">
-        <v>108.9034298151194</v>
+        <v>108.9034298151193</v>
       </c>
       <c r="U21" t="n">
         <v>134.6800832012726</v>
@@ -24108,7 +24108,7 @@
         <v>141.539288269723</v>
       </c>
       <c r="W21" t="n">
-        <v>160.4336842812174</v>
+        <v>160.4336842812173</v>
       </c>
       <c r="X21" t="n">
         <v>114.5116863237752</v>
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.57068130223504</v>
+        <v>88.57068130223503</v>
       </c>
       <c r="C22" t="n">
-        <v>75.98552221892558</v>
+        <v>75.98552221892557</v>
       </c>
       <c r="D22" t="n">
-        <v>57.3541741385101</v>
+        <v>57.35417413851009</v>
       </c>
       <c r="E22" t="n">
-        <v>55.17266376686692</v>
+        <v>55.1726637668669</v>
       </c>
       <c r="F22" t="n">
-        <v>54.15974914322899</v>
+        <v>54.15974914322898</v>
       </c>
       <c r="G22" t="n">
-        <v>76.72968047875651</v>
+        <v>76.72968047875649</v>
       </c>
       <c r="H22" t="n">
-        <v>70.96587362773732</v>
+        <v>70.96587362773731</v>
       </c>
       <c r="I22" t="n">
-        <v>64.18917604755603</v>
+        <v>64.18917604755602</v>
       </c>
       <c r="J22" t="n">
-        <v>2.097881236970522</v>
+        <v>2.097881236970508</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>86.03209249746723</v>
+        <v>86.03209249746722</v>
       </c>
       <c r="S22" t="n">
         <v>132.75529915727</v>
@@ -24224,7 +24224,7 @@
         <v>248.2135032360649</v>
       </c>
       <c r="I23" t="n">
-        <v>119.2145906907037</v>
+        <v>119.2145906907036</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.60781906144743</v>
+        <v>58.60781906144742</v>
       </c>
       <c r="S23" t="n">
         <v>117.7587707065431</v>
@@ -24263,7 +24263,7 @@
         <v>160.0843540281342</v>
       </c>
       <c r="V23" t="n">
-        <v>236.4909595904327</v>
+        <v>236.4909595904326</v>
       </c>
       <c r="W23" t="n">
         <v>257.9796698377107</v>
@@ -24272,7 +24272,7 @@
         <v>278.4698017987668</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.9766397763514</v>
+        <v>294.9766397763513</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.27188477016509</v>
+        <v>75.27188477016507</v>
       </c>
       <c r="C24" t="n">
-        <v>81.44720010861349</v>
+        <v>81.44720010861347</v>
       </c>
       <c r="D24" t="n">
-        <v>56.1837666849365</v>
+        <v>56.18376668493649</v>
       </c>
       <c r="E24" t="n">
-        <v>66.38378157569869</v>
+        <v>66.38378157569868</v>
       </c>
       <c r="F24" t="n">
-        <v>53.80791351368163</v>
+        <v>53.80791351368161</v>
       </c>
       <c r="G24" t="n">
-        <v>46.08221828350838</v>
+        <v>46.08221828350837</v>
       </c>
       <c r="H24" t="n">
-        <v>20.97414535679421</v>
+        <v>20.9741453567942</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.896535272940881</v>
+        <v>8.896535272940866</v>
       </c>
       <c r="S24" t="n">
-        <v>80.42187222413557</v>
+        <v>80.42187222413556</v>
       </c>
       <c r="T24" t="n">
-        <v>108.9034298151194</v>
+        <v>108.9034298151193</v>
       </c>
       <c r="U24" t="n">
         <v>134.6800832012726</v>
@@ -24345,7 +24345,7 @@
         <v>141.539288269723</v>
       </c>
       <c r="W24" t="n">
-        <v>160.4336842812174</v>
+        <v>160.4336842812173</v>
       </c>
       <c r="X24" t="n">
         <v>114.5116863237752</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.57068130223504</v>
+        <v>88.57068130223503</v>
       </c>
       <c r="C25" t="n">
-        <v>75.98552221892558</v>
+        <v>75.98552221892557</v>
       </c>
       <c r="D25" t="n">
-        <v>57.3541741385101</v>
+        <v>57.35417413851009</v>
       </c>
       <c r="E25" t="n">
-        <v>55.17266376686692</v>
+        <v>55.1726637668669</v>
       </c>
       <c r="F25" t="n">
-        <v>54.15974914322899</v>
+        <v>54.15974914322898</v>
       </c>
       <c r="G25" t="n">
-        <v>76.72968047875651</v>
+        <v>76.72968047875649</v>
       </c>
       <c r="H25" t="n">
-        <v>70.96587362773732</v>
+        <v>70.96587362773731</v>
       </c>
       <c r="I25" t="n">
-        <v>64.18917604755603</v>
+        <v>64.18917604755602</v>
       </c>
       <c r="J25" t="n">
-        <v>2.097881236970522</v>
+        <v>2.097881236970508</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>86.03209249746723</v>
+        <v>86.03209249746722</v>
       </c>
       <c r="S25" t="n">
         <v>132.75529915727</v>
@@ -24443,7 +24443,7 @@
         <v>295.6961369082176</v>
       </c>
       <c r="C26" t="n">
-        <v>278.2351870157446</v>
+        <v>278.2351870157445</v>
       </c>
       <c r="D26" t="n">
         <v>267.6453368654199</v>
@@ -24458,7 +24458,7 @@
         <v>328.265032759872</v>
       </c>
       <c r="H26" t="n">
-        <v>252.4370973605042</v>
+        <v>252.4370973605041</v>
       </c>
       <c r="I26" t="n">
         <v>123.4381848151429</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>62.8314131858867</v>
+        <v>62.83141318588669</v>
       </c>
       <c r="S26" t="n">
-        <v>121.9823648309824</v>
+        <v>121.9823648309823</v>
       </c>
       <c r="T26" t="n">
-        <v>136.0581448088684</v>
+        <v>136.0581448088683</v>
       </c>
       <c r="U26" t="n">
         <v>164.3079481525735</v>
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.49547889460436</v>
+        <v>79.49547889460435</v>
       </c>
       <c r="C27" t="n">
-        <v>85.67079423305276</v>
+        <v>85.67079423305275</v>
       </c>
       <c r="D27" t="n">
-        <v>60.40736080937577</v>
+        <v>60.40736080937576</v>
       </c>
       <c r="E27" t="n">
-        <v>70.60737570013796</v>
+        <v>70.60737570013795</v>
       </c>
       <c r="F27" t="n">
-        <v>58.0315076381209</v>
+        <v>58.03150763812089</v>
       </c>
       <c r="G27" t="n">
-        <v>50.30581240794766</v>
+        <v>50.30581240794764</v>
       </c>
       <c r="H27" t="n">
-        <v>25.19773948123348</v>
+        <v>25.19773948123347</v>
       </c>
       <c r="I27" t="n">
-        <v>2.358928096152098</v>
+        <v>2.358928096152084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.12012939738015</v>
+        <v>13.12012939738014</v>
       </c>
       <c r="S27" t="n">
-        <v>84.64546634857484</v>
+        <v>84.64546634857483</v>
       </c>
       <c r="T27" t="n">
         <v>113.1270239395586</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.79427542667432</v>
+        <v>92.7942754266743</v>
       </c>
       <c r="C28" t="n">
-        <v>80.20911634336485</v>
+        <v>80.20911634336484</v>
       </c>
       <c r="D28" t="n">
-        <v>61.57776826294938</v>
+        <v>61.57776826294936</v>
       </c>
       <c r="E28" t="n">
-        <v>59.39625789130619</v>
+        <v>59.39625789130618</v>
       </c>
       <c r="F28" t="n">
-        <v>58.38334326766827</v>
+        <v>58.38334326766825</v>
       </c>
       <c r="G28" t="n">
-        <v>80.95327460319578</v>
+        <v>80.95327460319577</v>
       </c>
       <c r="H28" t="n">
-        <v>75.1894677521766</v>
+        <v>75.18946775217658</v>
       </c>
       <c r="I28" t="n">
-        <v>68.41277017199531</v>
+        <v>68.41277017199529</v>
       </c>
       <c r="J28" t="n">
-        <v>6.321475361409796</v>
+        <v>6.321475361409782</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.25568662190651</v>
+        <v>90.25568662190649</v>
       </c>
       <c r="S28" t="n">
-        <v>136.9788932817093</v>
+        <v>136.9788932817092</v>
       </c>
       <c r="T28" t="n">
         <v>140.9078846730185</v>
@@ -24664,7 +24664,7 @@
         <v>199.485293581328</v>
       </c>
       <c r="X28" t="n">
-        <v>138.6719506337742</v>
+        <v>138.6719506337741</v>
       </c>
       <c r="Y28" t="n">
         <v>131.5469485968318</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>479268.256765208</v>
+        <v>479268.2567652081</v>
       </c>
     </row>
     <row r="11">
@@ -26314,43 +26314,43 @@
         <v>716866.7963774088</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774088</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="E2" t="n">
-        <v>214928.0813476831</v>
+        <v>214928.081347683</v>
       </c>
       <c r="F2" t="n">
         <v>380413.3939910796</v>
       </c>
       <c r="G2" t="n">
-        <v>380413.3939910795</v>
+        <v>380413.3939910796</v>
       </c>
       <c r="H2" t="n">
         <v>380413.3939910792</v>
       </c>
       <c r="I2" t="n">
-        <v>380413.3939910784</v>
+        <v>380413.3939910795</v>
       </c>
       <c r="J2" t="n">
-        <v>371760.8512337616</v>
+        <v>371760.8512337615</v>
       </c>
       <c r="K2" t="n">
         <v>485273.5829032721</v>
       </c>
       <c r="L2" t="n">
-        <v>485273.582903272</v>
+        <v>485273.5829032721</v>
       </c>
       <c r="M2" t="n">
         <v>485273.5829032721</v>
       </c>
       <c r="N2" t="n">
-        <v>485273.5829032722</v>
+        <v>485273.5829032721</v>
       </c>
       <c r="O2" t="n">
-        <v>470628.7550249557</v>
+        <v>470628.7550249556</v>
       </c>
       <c r="P2" t="n">
         <v>188137.9596800312</v>
@@ -26375,7 +26375,7 @@
         <v>9559.431483690014</v>
       </c>
       <c r="F3" t="n">
-        <v>63449.60762007179</v>
+        <v>63449.6076200718</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>124455.3967726702</v>
+        <v>124982.7419867166</v>
       </c>
       <c r="F4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="G4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="H4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="I4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="J4" t="n">
-        <v>226758.2326825385</v>
+        <v>227285.5778965848</v>
       </c>
       <c r="K4" t="n">
-        <v>300803.1811336951</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="L4" t="n">
-        <v>300803.1811336952</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="M4" t="n">
-        <v>300803.1811336951</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="N4" t="n">
-        <v>300803.1811336952</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="O4" t="n">
-        <v>291250.2833276311</v>
+        <v>291777.6285416774</v>
       </c>
       <c r="P4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>1004.56480675292</v>
       </c>
       <c r="F5" t="n">
-        <v>7672.246135517689</v>
+        <v>7672.24613551769</v>
       </c>
       <c r="G5" t="n">
-        <v>7672.246135517689</v>
+        <v>7672.24613551769</v>
       </c>
       <c r="H5" t="n">
-        <v>7672.246135517689</v>
+        <v>7672.24613551769</v>
       </c>
       <c r="I5" t="n">
-        <v>7672.246135517689</v>
+        <v>7672.24613551769</v>
       </c>
       <c r="J5" t="n">
-        <v>7317.172801070204</v>
+        <v>7317.172801070205</v>
       </c>
       <c r="K5" t="n">
         <v>12195.82361669939</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231366.55104249</v>
+        <v>230839.2058284436</v>
       </c>
       <c r="C6" t="n">
-        <v>231366.55104249</v>
+        <v>230839.2058284435</v>
       </c>
       <c r="D6" t="n">
-        <v>231366.5510424899</v>
+        <v>230839.2058284434</v>
       </c>
       <c r="E6" t="n">
-        <v>79908.68828456996</v>
+        <v>79381.34307052346</v>
       </c>
       <c r="F6" t="n">
-        <v>76889.208666297</v>
+        <v>76361.86345225057</v>
       </c>
       <c r="G6" t="n">
-        <v>140338.8162863687</v>
+        <v>139811.4710723224</v>
       </c>
       <c r="H6" t="n">
-        <v>140338.8162863684</v>
+        <v>139811.471072322</v>
       </c>
       <c r="I6" t="n">
-        <v>140338.8162863676</v>
+        <v>139811.4710723223</v>
       </c>
       <c r="J6" t="n">
-        <v>131504.8895660144</v>
+        <v>130977.5443519679</v>
       </c>
       <c r="K6" t="n">
-        <v>62399.76442230905</v>
+        <v>61872.4192082627</v>
       </c>
       <c r="L6" t="n">
-        <v>172274.5781528774</v>
+        <v>171747.2329388312</v>
       </c>
       <c r="M6" t="n">
-        <v>172274.5781528776</v>
+        <v>171747.2329388311</v>
       </c>
       <c r="N6" t="n">
-        <v>172274.5781528776</v>
+        <v>171747.2329388311</v>
       </c>
       <c r="O6" t="n">
-        <v>167832.1395529306</v>
+        <v>167304.7943388842</v>
       </c>
       <c r="P6" t="n">
-        <v>81157.89936263111</v>
+        <v>80630.55414858476</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>11.94928935461252</v>
       </c>
       <c r="F2" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G2" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H2" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I2" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J2" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="K2" t="n">
         <v>145.0692123933839</v>
@@ -26917,7 +26917,7 @@
         <v>11.94928935461252</v>
       </c>
       <c r="F2" t="n">
-        <v>79.31200952508974</v>
+        <v>79.31200952508975</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>79.31200952508974</v>
+        <v>79.31200952508975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28530,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28767,28 +28767,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="22">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29004,28 +29004,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="25">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="C25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="D25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="E25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="F25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="G25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="H25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="I25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="J25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29241,28 +29241,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="S25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="T25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="U25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="V25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="W25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="X25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.26129887970225</v>
+        <v>91.26129887970227</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="C26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="D26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="E26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="F26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="G26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="H26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="I26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="S26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="T26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="U26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="V26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="W26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="X26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="C27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="D27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="E27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="F27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="G27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="H27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="I27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="S27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="T27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="U27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="V27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="W27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="X27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="Y27" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
     </row>
     <row r="28">
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="C28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="D28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="E28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="F28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="G28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="H28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="I28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="J28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -29478,28 +29478,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="S28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="T28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="U28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="V28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="W28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="X28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.03770475526298</v>
+        <v>87.03770475526299</v>
       </c>
     </row>
     <row r="29">

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1322271.211357425</v>
+        <v>1268148.292340108</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5311030.393868374</v>
+        <v>5117489.51767665</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11719891.61132454</v>
+        <v>11743522.64553508</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6620249.011885324</v>
+        <v>6643510.464270761</v>
       </c>
     </row>
     <row r="11">
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T23" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U23" t="n">
-        <v>8.880926203908174</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V23" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W23" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W24" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.822319800402317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>8.880926203908174</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.822319800402319</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D26" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E26" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F26" t="n">
-        <v>8.880926203908174</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>7.822319800402319</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X27" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U28" t="n">
-        <v>8.880926203908174</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W28" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X28" t="n">
-        <v>7.822319800402317</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>7.822319800402319</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U30" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V30" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W30" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.822319800402317</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>8.880926203908174</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V34" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D35" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U36" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V36" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S37" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T38" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U38" t="n">
-        <v>8.880926203908174</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>15.16042112171088</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>7.405931362519951</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7.822319800402319</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G42" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I42" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R43" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.822319800402316</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C45" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E45" t="n">
-        <v>8.880926203908174</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.822319800402319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.822319800402316</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,22 +4179,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R46" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S46" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K23" t="n">
-        <v>9.502591038181746</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L23" t="n">
-        <v>9.502591038181746</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M23" t="n">
-        <v>17.93947093189451</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N23" t="n">
-        <v>26.7315878737636</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O23" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P23" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q23" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R23" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S23" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T23" t="n">
-        <v>26.55307228643252</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U23" t="n">
-        <v>17.58243975723234</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V23" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.681106625512831</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C24" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D24" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E24" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F24" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G24" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H24" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I24" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J24" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K24" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L24" t="n">
-        <v>0.710474096312654</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M24" t="n">
-        <v>9.502591038181746</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N24" t="n">
-        <v>18.29470798005084</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O24" t="n">
-        <v>26.7315878737636</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P24" t="n">
-        <v>26.7315878737636</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R24" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S24" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T24" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U24" t="n">
-        <v>35.5237048156327</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V24" t="n">
-        <v>35.5237048156327</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W24" t="n">
-        <v>26.55307228643252</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X24" t="n">
-        <v>17.58243975723234</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.681106625512831</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C25" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D25" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E25" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F25" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G25" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H25" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I25" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J25" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K25" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L25" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M25" t="n">
-        <v>18.29470798005084</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N25" t="n">
-        <v>27.08682492191993</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O25" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P25" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R25" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S25" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T25" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U25" t="n">
-        <v>26.55307228643252</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V25" t="n">
-        <v>26.55307228643252</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W25" t="n">
-        <v>26.55307228643252</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X25" t="n">
-        <v>17.58243975723234</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.58243975723234</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C26" t="n">
-        <v>27.62237168391318</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D26" t="n">
-        <v>18.65173915471301</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E26" t="n">
-        <v>9.681106625512831</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G26" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H26" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I26" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J26" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K26" t="n">
-        <v>9.502591038181746</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L26" t="n">
-        <v>18.29470798005084</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M26" t="n">
-        <v>27.08682492191993</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N26" t="n">
-        <v>35.5237048156327</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C27" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D27" t="n">
-        <v>0.710474096312654</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E27" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F27" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G27" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H27" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I27" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J27" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K27" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L27" t="n">
-        <v>18.29470798005084</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M27" t="n">
-        <v>27.08682492191993</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N27" t="n">
-        <v>27.08682492191993</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O27" t="n">
-        <v>27.08682492191993</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P27" t="n">
-        <v>27.08682492191993</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R27" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S27" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T27" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U27" t="n">
-        <v>26.55307228643252</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V27" t="n">
-        <v>26.55307228643252</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W27" t="n">
-        <v>18.65173915471301</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X27" t="n">
-        <v>9.681106625512831</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570477</v>
       </c>
       <c r="L28" t="n">
-        <v>9.147353990025419</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M28" t="n">
-        <v>17.93947093189451</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N28" t="n">
-        <v>26.7315878737636</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O28" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P28" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R28" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S28" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T28" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U28" t="n">
-        <v>26.55307228643252</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V28" t="n">
-        <v>26.55307228643252</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W28" t="n">
-        <v>17.58243975723234</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X28" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.710474096312654</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C29" t="n">
-        <v>0.710474096312654</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D29" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E29" t="n">
-        <v>0.710474096312654</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F29" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G29" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H29" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I29" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J29" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K29" t="n">
-        <v>9.502591038181746</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L29" t="n">
-        <v>18.29470798005084</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M29" t="n">
-        <v>18.29470798005084</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N29" t="n">
-        <v>18.29470798005084</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O29" t="n">
-        <v>26.7315878737636</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P29" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q29" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R29" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S29" t="n">
-        <v>27.62237168391318</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T29" t="n">
-        <v>18.65173915471301</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U29" t="n">
-        <v>9.681106625512831</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V29" t="n">
-        <v>0.710474096312654</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W29" t="n">
-        <v>0.710474096312654</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X29" t="n">
-        <v>0.710474096312654</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.710474096312654</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K30" t="n">
-        <v>0.710474096312654</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L30" t="n">
-        <v>0.710474096312654</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M30" t="n">
-        <v>0.710474096312654</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N30" t="n">
-        <v>9.147353990025419</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O30" t="n">
-        <v>17.93947093189451</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P30" t="n">
-        <v>26.7315878737636</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R30" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S30" t="n">
-        <v>27.62237168391318</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T30" t="n">
-        <v>27.62237168391318</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U30" t="n">
-        <v>18.65173915471301</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V30" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G31" t="n">
-        <v>9.681106625512831</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H31" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I31" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J31" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K31" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L31" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M31" t="n">
-        <v>18.29470798005084</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N31" t="n">
-        <v>26.7315878737636</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O31" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P31" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R31" t="n">
-        <v>26.55307228643252</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S31" t="n">
-        <v>17.58243975723234</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T31" t="n">
-        <v>17.58243975723234</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.5237048156327</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C32" t="n">
-        <v>27.62237168391318</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D32" t="n">
-        <v>18.65173915471301</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E32" t="n">
-        <v>9.681106625512831</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F32" t="n">
-        <v>0.710474096312654</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G32" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H32" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I32" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J32" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K32" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L32" t="n">
-        <v>9.502591038181746</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M32" t="n">
-        <v>17.93947093189451</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N32" t="n">
-        <v>17.93947093189451</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O32" t="n">
-        <v>26.7315878737636</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P32" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q32" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R32" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S32" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T32" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U32" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V32" t="n">
-        <v>35.5237048156327</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W32" t="n">
-        <v>35.5237048156327</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X32" t="n">
-        <v>35.5237048156327</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.5237048156327</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.5237048156327</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C33" t="n">
-        <v>26.55307228643252</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D33" t="n">
-        <v>26.55307228643252</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E33" t="n">
-        <v>18.65173915471301</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F33" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G33" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H33" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I33" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J33" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K33" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L33" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M33" t="n">
-        <v>9.147353990025419</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N33" t="n">
-        <v>17.93947093189451</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O33" t="n">
-        <v>26.7315878737636</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P33" t="n">
-        <v>35.5237048156327</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R33" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S33" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T33" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U33" t="n">
-        <v>35.5237048156327</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V33" t="n">
-        <v>35.5237048156327</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W33" t="n">
-        <v>35.5237048156327</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X33" t="n">
-        <v>35.5237048156327</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.5237048156327</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.611807228032166</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C34" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D34" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E34" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F34" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G34" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H34" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I34" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J34" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K34" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L34" t="n">
-        <v>9.147353990025419</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M34" t="n">
-        <v>17.93947093189451</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N34" t="n">
-        <v>26.7315878737636</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O34" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P34" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R34" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S34" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T34" t="n">
-        <v>26.55307228643252</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U34" t="n">
-        <v>17.58243975723234</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V34" t="n">
-        <v>8.611807228032166</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W34" t="n">
-        <v>8.611807228032166</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X34" t="n">
-        <v>8.611807228032166</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.611807228032166</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.5237048156327</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C35" t="n">
-        <v>35.5237048156327</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D35" t="n">
-        <v>26.55307228643252</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E35" t="n">
-        <v>17.58243975723234</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F35" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G35" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H35" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I35" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J35" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K35" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L35" t="n">
-        <v>18.29470798005084</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M35" t="n">
-        <v>27.08682492191993</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N35" t="n">
-        <v>35.5237048156327</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O35" t="n">
-        <v>35.5237048156327</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P35" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R35" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S35" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T35" t="n">
-        <v>35.5237048156327</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U35" t="n">
-        <v>35.5237048156327</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V35" t="n">
-        <v>35.5237048156327</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W35" t="n">
-        <v>35.5237048156327</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X35" t="n">
-        <v>35.5237048156327</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.5237048156327</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C36" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D36" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E36" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F36" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G36" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H36" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I36" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J36" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K36" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L36" t="n">
-        <v>18.29470798005084</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M36" t="n">
-        <v>27.08682492191993</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N36" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O36" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P36" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R36" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S36" t="n">
-        <v>27.62237168391318</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T36" t="n">
-        <v>27.62237168391318</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U36" t="n">
-        <v>18.65173915471301</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V36" t="n">
-        <v>9.681106625512831</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W36" t="n">
-        <v>9.681106625512831</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X36" t="n">
-        <v>9.681106625512831</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.710474096312654</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D37" t="n">
-        <v>0.710474096312654</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E37" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F37" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G37" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H37" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I37" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J37" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K37" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L37" t="n">
-        <v>9.502591038181746</v>
+        <v>27.413711578255</v>
       </c>
       <c r="M37" t="n">
-        <v>18.29470798005084</v>
+        <v>52.77779986093952</v>
       </c>
       <c r="N37" t="n">
-        <v>27.08682492191993</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O37" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P37" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R37" t="n">
-        <v>26.55307228643252</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S37" t="n">
-        <v>18.65173915471301</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T37" t="n">
-        <v>9.681106625512831</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U37" t="n">
-        <v>9.681106625512831</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V37" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W37" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X37" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J38" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K38" t="n">
-        <v>9.502591038181746</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L38" t="n">
-        <v>18.29470798005084</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M38" t="n">
-        <v>27.08682492191993</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N38" t="n">
-        <v>35.5237048156327</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O38" t="n">
-        <v>35.5237048156327</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P38" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R38" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S38" t="n">
-        <v>35.5237048156327</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T38" t="n">
-        <v>26.55307228643252</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U38" t="n">
-        <v>17.58243975723234</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V38" t="n">
-        <v>17.58243975723234</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W38" t="n">
-        <v>17.58243975723234</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X38" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9.681106625512831</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C39" t="n">
-        <v>9.681106625512831</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D39" t="n">
-        <v>9.681106625512831</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E39" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F39" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G39" t="n">
-        <v>0.710474096312654</v>
+        <v>9.53036204559062</v>
       </c>
       <c r="H39" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I39" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J39" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K39" t="n">
-        <v>9.502591038181746</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L39" t="n">
-        <v>18.29470798005084</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M39" t="n">
-        <v>27.08682492191993</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N39" t="n">
-        <v>35.5237048156327</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O39" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P39" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R39" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S39" t="n">
-        <v>27.62237168391318</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T39" t="n">
-        <v>27.62237168391318</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U39" t="n">
-        <v>27.62237168391318</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V39" t="n">
-        <v>27.62237168391318</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W39" t="n">
-        <v>27.62237168391318</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X39" t="n">
-        <v>18.65173915471301</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.681106625512831</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.710474096312654</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C40" t="n">
-        <v>0.710474096312654</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D40" t="n">
-        <v>0.710474096312654</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E40" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F40" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G40" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H40" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I40" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J40" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K40" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L40" t="n">
-        <v>9.147353990025419</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M40" t="n">
-        <v>17.93947093189451</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N40" t="n">
-        <v>26.7315878737636</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O40" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P40" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R40" t="n">
-        <v>26.55307228643252</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S40" t="n">
-        <v>17.58243975723234</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T40" t="n">
-        <v>17.58243975723234</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U40" t="n">
-        <v>8.611807228032166</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V40" t="n">
-        <v>8.611807228032166</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W40" t="n">
-        <v>8.611807228032166</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X40" t="n">
-        <v>8.611807228032166</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.611807228032166</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.710474096312654</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C41" t="n">
-        <v>0.710474096312654</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E41" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F41" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G41" t="n">
-        <v>0.710474096312654</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H41" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I41" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>9.502591038181746</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L41" t="n">
-        <v>17.93947093189451</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M41" t="n">
-        <v>26.7315878737636</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N41" t="n">
-        <v>35.5237048156327</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O41" t="n">
-        <v>35.5237048156327</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P41" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>27.62237168391318</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S41" t="n">
-        <v>27.62237168391318</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T41" t="n">
-        <v>27.62237168391318</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U41" t="n">
-        <v>27.62237168391318</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V41" t="n">
-        <v>27.62237168391318</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W41" t="n">
-        <v>18.65173915471301</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X41" t="n">
-        <v>9.681106625512831</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.710474096312654</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C42" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D42" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E42" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F42" t="n">
-        <v>17.58243975723234</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G42" t="n">
-        <v>8.611807228032166</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H42" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I42" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>0.710474096312654</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L42" t="n">
-        <v>9.147353990025419</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M42" t="n">
-        <v>9.147353990025419</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N42" t="n">
-        <v>17.93947093189451</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O42" t="n">
-        <v>26.7315878737636</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P42" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V42" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W42" t="n">
-        <v>26.55307228643252</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X42" t="n">
-        <v>17.58243975723234</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.58243975723234</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.65173915471301</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C43" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D43" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>18.29470798005084</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>27.08682492191993</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R43" t="n">
-        <v>26.55307228643252</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S43" t="n">
-        <v>18.65173915471301</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T43" t="n">
-        <v>18.65173915471301</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U43" t="n">
-        <v>18.65173915471301</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V43" t="n">
-        <v>18.65173915471301</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W43" t="n">
-        <v>18.65173915471301</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X43" t="n">
-        <v>18.65173915471301</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.65173915471301</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.611807228032166</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C44" t="n">
-        <v>8.611807228032166</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D44" t="n">
-        <v>8.611807228032166</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E44" t="n">
-        <v>8.611807228032166</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F44" t="n">
-        <v>8.611807228032166</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G44" t="n">
-        <v>8.611807228032166</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H44" t="n">
-        <v>8.611807228032166</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I44" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>9.502591038181746</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L44" t="n">
-        <v>17.93947093189451</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M44" t="n">
-        <v>26.7315878737636</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N44" t="n">
-        <v>35.5237048156327</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O44" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P44" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R44" t="n">
-        <v>26.55307228643252</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S44" t="n">
-        <v>26.55307228643252</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T44" t="n">
-        <v>17.58243975723234</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U44" t="n">
-        <v>17.58243975723234</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V44" t="n">
-        <v>17.58243975723234</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W44" t="n">
-        <v>8.611807228032166</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X44" t="n">
-        <v>8.611807228032166</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.611807228032166</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.62237168391318</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C45" t="n">
-        <v>18.65173915471301</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D45" t="n">
-        <v>18.65173915471301</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E45" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F45" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G45" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H45" t="n">
-        <v>9.681106625512831</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I45" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J45" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>9.147353990025419</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L45" t="n">
-        <v>17.93947093189451</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M45" t="n">
-        <v>26.7315878737636</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U45" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V45" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W45" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X45" t="n">
-        <v>35.5237048156327</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.62237168391318</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J46" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0.710474096312654</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>9.502591038181746</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>18.29470798005084</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>27.08682492191993</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>35.5237048156327</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.55307228643252</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R46" t="n">
-        <v>17.58243975723234</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S46" t="n">
-        <v>8.611807228032166</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T46" t="n">
-        <v>8.611807228032166</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U46" t="n">
-        <v>8.611807228032166</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.611807228032166</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
   </sheetData>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9707772488887</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M23" t="n">
-        <v>238.8683341300129</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N23" t="n">
-        <v>238.2939898004991</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O23" t="n">
-        <v>238.9791376255949</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M24" t="n">
-        <v>151.0149601259265</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N24" t="n">
-        <v>140.2226382872415</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O24" t="n">
-        <v>151.1183453471846</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.8627002899297</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,16 +9801,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>143.7656024851465</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M25" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N25" t="n">
-        <v>136.5664706691414</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O25" t="n">
-        <v>146.978639354583</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>228.9707772488887</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>244.6473411738954</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M26" t="n">
-        <v>239.2271594311809</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N26" t="n">
-        <v>237.9351644993311</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>146.7223651782672</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L27" t="n">
-        <v>147.4353059837824</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M27" t="n">
-        <v>151.0149601259265</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q27" t="n">
-        <v>148.5038749887617</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10038,16 +10038,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>143.4067771839784</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M28" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N28" t="n">
-        <v>136.5664706691414</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O28" t="n">
-        <v>147.337464655751</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>228.9707772488887</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L29" t="n">
-        <v>244.6473411738954</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O29" t="n">
-        <v>238.6203123244269</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>240.1139219591777</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N30" t="n">
-        <v>139.8638129860735</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O30" t="n">
-        <v>151.4771706483526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>142.8553336182384</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>148.8627002899297</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,16 +10275,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>143.7656024851465</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M31" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N31" t="n">
-        <v>136.2076453679734</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O31" t="n">
-        <v>147.337464655751</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>228.9707772488887</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M32" t="n">
-        <v>238.8683341300129</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O32" t="n">
-        <v>238.9791376255949</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>240.1139219591777</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10436,19 +10436,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>150.6561348247585</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>140.2226382872415</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O33" t="n">
-        <v>151.4771706483526</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P33" t="n">
-        <v>142.8553336182384</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,16 +10512,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>143.4067771839784</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M34" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N34" t="n">
-        <v>136.5664706691414</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O34" t="n">
-        <v>147.337464655751</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>228.9707772488887</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L35" t="n">
-        <v>244.6473411738954</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>239.2271594311809</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>237.9351644993311</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>146.7223651782672</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L36" t="n">
-        <v>147.4353059837824</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M36" t="n">
-        <v>151.0149601259265</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N36" t="n">
-        <v>139.8638129860735</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>143.7656024851465</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M37" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N37" t="n">
-        <v>136.5664706691414</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O37" t="n">
-        <v>146.978639354583</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>228.9707772488887</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>244.6473411738954</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>239.2271594311809</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N38" t="n">
-        <v>237.9351644993311</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>146.7223651782672</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>147.4353059837824</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M39" t="n">
-        <v>151.0149601259265</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N39" t="n">
-        <v>139.8638129860735</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -10986,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>143.4067771839784</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M40" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N40" t="n">
-        <v>136.5664706691414</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O40" t="n">
-        <v>147.337464655751</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>228.9707772488887</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>244.2885158727274</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>239.2271594311809</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N41" t="n">
-        <v>238.2939898004991</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L42" t="n">
-        <v>147.0764806826143</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N42" t="n">
-        <v>140.2226382872415</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>151.4771706483526</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P42" t="n">
-        <v>142.8553336182384</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>143.7656024851465</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>136.5664706691414</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
-        <v>146.978639354583</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>228.9707772488887</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>244.2885158727274</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M44" t="n">
-        <v>239.2271594311809</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N44" t="n">
-        <v>238.2939898004991</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>146.3635398770992</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L45" t="n">
-        <v>147.4353059837824</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M45" t="n">
-        <v>151.0149601259265</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N45" t="n">
-        <v>140.2226382872415</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -11460,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>143.7656024851465</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>147.8067101515132</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>136.5664706691414</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>146.978639354583</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -24256,19 +24256,19 @@
         <v>49.71128378850655</v>
       </c>
       <c r="S23" t="n">
-        <v>108.8622354336022</v>
+        <v>83.24194423897137</v>
       </c>
       <c r="T23" t="n">
-        <v>114.05708920758</v>
+        <v>97.31772421685739</v>
       </c>
       <c r="U23" t="n">
-        <v>142.3068925512852</v>
+        <v>128.6214662709625</v>
       </c>
       <c r="V23" t="n">
-        <v>218.7134981135836</v>
+        <v>201.9741331228609</v>
       </c>
       <c r="W23" t="n">
-        <v>241.2608147643676</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X23" t="n">
         <v>269.5732665258259</v>
@@ -24287,7 +24287,7 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C24" t="n">
-        <v>63.66973863176443</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D24" t="n">
         <v>47.28723141199562</v>
@@ -24299,7 +24299,7 @@
         <v>44.91137824074075</v>
       </c>
       <c r="G24" t="n">
-        <v>37.1856830105675</v>
+        <v>11.56539181593667</v>
       </c>
       <c r="H24" t="n">
         <v>12.07761008385333</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>71.52533695119469</v>
+        <v>45.90504575656386</v>
       </c>
       <c r="T24" t="n">
         <v>100.0068945421785</v>
       </c>
       <c r="U24" t="n">
-        <v>125.7835479283317</v>
+        <v>100.1632567337008</v>
       </c>
       <c r="V24" t="n">
-        <v>132.6427529967821</v>
+        <v>110.0764005125513</v>
       </c>
       <c r="W24" t="n">
-        <v>142.6562228043683</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X24" t="n">
-        <v>96.73422484692617</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y24" t="n">
-        <v>97.70254182425892</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.79321982538599</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C25" t="n">
         <v>67.0889869459847</v>
@@ -24372,7 +24372,7 @@
         <v>48.45763886556922</v>
       </c>
       <c r="E25" t="n">
-        <v>38.45380869352372</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F25" t="n">
         <v>45.26321387028811</v>
@@ -24420,19 +24420,19 @@
         <v>127.7877552756384</v>
       </c>
       <c r="U25" t="n">
-        <v>177.2802689999396</v>
+        <v>160.5409040092169</v>
       </c>
       <c r="V25" t="n">
-        <v>151.9798091711849</v>
+        <v>126.359517976554</v>
       </c>
       <c r="W25" t="n">
         <v>186.3651641839479</v>
       </c>
       <c r="X25" t="n">
-        <v>116.6708950324858</v>
+        <v>102.9854687521632</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.4268191994517</v>
+        <v>92.80652800482082</v>
       </c>
     </row>
     <row r="26">
@@ -24445,16 +24445,16 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>268.0539391191901</v>
+        <v>250.2559677249617</v>
       </c>
       <c r="D26" t="n">
-        <v>256.4054825653597</v>
+        <v>239.6661175746371</v>
       </c>
       <c r="E26" t="n">
-        <v>283.6528110169385</v>
+        <v>266.9134460262159</v>
       </c>
       <c r="F26" t="n">
-        <v>308.5984866863882</v>
+        <v>294.9130604060655</v>
       </c>
       <c r="G26" t="n">
         <v>325.90610466372</v>
@@ -24527,13 +24527,13 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>32.42814151859285</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>42.62815640935504</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>33.10622705773797</v>
       </c>
       <c r="G27" t="n">
         <v>47.94688431179556</v>
@@ -24578,19 +24578,19 @@
         <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>127.6638230256516</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>154.4760305091022</v>
+        <v>136.6780591148737</v>
       </c>
       <c r="X27" t="n">
-        <v>107.4954261481542</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>107.4051367219811</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -24654,22 +24654,22 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>112.9286653822356</v>
       </c>
       <c r="U28" t="n">
-        <v>188.0414703011676</v>
+        <v>174.356044020845</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7410104724129</v>
+        <v>137.1207192777821</v>
       </c>
       <c r="W28" t="n">
-        <v>188.2454392812677</v>
+        <v>171.5060742905451</v>
       </c>
       <c r="X28" t="n">
-        <v>128.4907027372198</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>120.3070942967716</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2864087692679</v>
+        <v>239.6661175746371</v>
       </c>
       <c r="E29" t="n">
-        <v>292.5337372208467</v>
+        <v>269.9673847366159</v>
       </c>
       <c r="F29" t="n">
-        <v>317.4794128902964</v>
+        <v>291.8591216956655</v>
       </c>
       <c r="G29" t="n">
-        <v>325.90610466372</v>
+        <v>300.2858134690891</v>
       </c>
       <c r="H29" t="n">
         <v>250.0781692643521</v>
@@ -24730,16 +24730,16 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>111.8011169344279</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>124.8182905088081</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>153.0680938525132</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>229.4746994148117</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
         <v>259.8443358659979</v>
@@ -24809,19 +24809,19 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>74.46421845202042</v>
+        <v>59.72018576819192</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7680958434065</v>
+        <v>85.14780464877569</v>
       </c>
       <c r="U30" t="n">
-        <v>127.6638230256516</v>
+        <v>110.9244580349289</v>
       </c>
       <c r="V30" t="n">
-        <v>134.523028094102</v>
+        <v>117.7836631033794</v>
       </c>
       <c r="W30" t="n">
-        <v>153.4174241055964</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
@@ -24852,13 +24852,13 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>70.77202670664137</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>63.94961345211632</v>
+        <v>47.21024846139367</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>43.48748959161237</v>
       </c>
       <c r="J31" t="n">
         <v>3.962547265257697</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>79.01583232184623</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>125.739038981649</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>112.9286653822356</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>171.302105310445</v>
       </c>
       <c r="V31" t="n">
         <v>162.7410104724129</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.4983974269841</v>
+        <v>277.9043287895041</v>
       </c>
       <c r="C32" t="n">
-        <v>245.2151277341088</v>
+        <v>260.443378897031</v>
       </c>
       <c r="D32" t="n">
-        <v>233.5666711802783</v>
+        <v>249.8535287467064</v>
       </c>
       <c r="E32" t="n">
-        <v>260.8139996318571</v>
+        <v>277.1008571982853</v>
       </c>
       <c r="F32" t="n">
-        <v>285.7596753013068</v>
+        <v>302.0465328677349</v>
       </c>
       <c r="G32" t="n">
-        <v>303.0672932786386</v>
+        <v>284.8529334465277</v>
       </c>
       <c r="H32" t="n">
-        <v>227.2393578792707</v>
+        <v>209.0249980471598</v>
       </c>
       <c r="I32" t="n">
-        <v>98.24044533390945</v>
+        <v>105.6463766964294</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.63367370465322</v>
+        <v>19.41931387254234</v>
       </c>
       <c r="S32" t="n">
-        <v>96.78462534974888</v>
+        <v>104.1905567122688</v>
       </c>
       <c r="T32" t="n">
-        <v>110.8604053276349</v>
+        <v>118.2663366901548</v>
       </c>
       <c r="U32" t="n">
-        <v>139.11020867134</v>
+        <v>146.51614003386</v>
       </c>
       <c r="V32" t="n">
-        <v>215.5168142336385</v>
+        <v>200.3563931119276</v>
       </c>
       <c r="W32" t="n">
-        <v>237.0055244809166</v>
+        <v>244.4114558434365</v>
       </c>
       <c r="X32" t="n">
-        <v>257.4956564419726</v>
+        <v>264.9015878044925</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0024944195571</v>
+        <v>281.4084257820771</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.29773941337088</v>
+        <v>61.70367077589083</v>
       </c>
       <c r="C33" t="n">
-        <v>51.5921285479111</v>
+        <v>67.87898611433923</v>
       </c>
       <c r="D33" t="n">
-        <v>35.20962132814229</v>
+        <v>42.61555269066224</v>
       </c>
       <c r="E33" t="n">
-        <v>37.58731641850216</v>
+        <v>52.81556758142443</v>
       </c>
       <c r="F33" t="n">
-        <v>23.95284195297924</v>
+        <v>40.23969951940737</v>
       </c>
       <c r="G33" t="n">
-        <v>16.227146722806</v>
+        <v>32.51400428923412</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>7.405931362519951</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.44772686734136</v>
+        <v>66.85365822986131</v>
       </c>
       <c r="T33" t="n">
-        <v>87.92928445832514</v>
+        <v>69.71492462621427</v>
       </c>
       <c r="U33" t="n">
-        <v>113.7059378444784</v>
+        <v>95.49157801236748</v>
       </c>
       <c r="V33" t="n">
-        <v>120.5651429129288</v>
+        <v>102.3507830808179</v>
       </c>
       <c r="W33" t="n">
-        <v>139.4595389244232</v>
+        <v>124.2991178027123</v>
       </c>
       <c r="X33" t="n">
-        <v>93.53754096698101</v>
+        <v>100.943472329501</v>
       </c>
       <c r="Y33" t="n">
-        <v>93.4472515408079</v>
+        <v>100.8531829033278</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.59653594544083</v>
+        <v>75.00246730796079</v>
       </c>
       <c r="C34" t="n">
-        <v>55.01137686213137</v>
+        <v>36.79701703002049</v>
       </c>
       <c r="D34" t="n">
-        <v>36.38002878171589</v>
+        <v>43.78596014423584</v>
       </c>
       <c r="E34" t="n">
-        <v>34.19851841007271</v>
+        <v>41.60444977259266</v>
       </c>
       <c r="F34" t="n">
-        <v>33.18560378643478</v>
+        <v>40.59153514895473</v>
       </c>
       <c r="G34" t="n">
-        <v>55.7555351219623</v>
+        <v>63.16146648448225</v>
       </c>
       <c r="H34" t="n">
-        <v>49.99172827094311</v>
+        <v>57.39765963346306</v>
       </c>
       <c r="I34" t="n">
-        <v>35.3927108903595</v>
+        <v>50.62096205328177</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.05794714067302</v>
+        <v>72.46387850319297</v>
       </c>
       <c r="S34" t="n">
-        <v>111.7811538004758</v>
+        <v>119.1870851629957</v>
       </c>
       <c r="T34" t="n">
-        <v>106.8292189878769</v>
+        <v>123.116076554305</v>
       </c>
       <c r="U34" t="n">
-        <v>165.2026589160862</v>
+        <v>158.9231639982835</v>
       </c>
       <c r="V34" t="n">
-        <v>131.0212728834234</v>
+        <v>147.3081304498515</v>
       </c>
       <c r="W34" t="n">
-        <v>174.2875541000946</v>
+        <v>156.0731942679837</v>
       </c>
       <c r="X34" t="n">
-        <v>113.4742111525407</v>
+        <v>120.8801425150606</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3492091155983</v>
+        <v>88.13484928348745</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>270.4983974269841</v>
+        <v>277.9043287895041</v>
       </c>
       <c r="C35" t="n">
-        <v>253.0374475345111</v>
+        <v>234.8230877024002</v>
       </c>
       <c r="D35" t="n">
-        <v>233.5666711802783</v>
+        <v>249.8535287467064</v>
       </c>
       <c r="E35" t="n">
-        <v>260.8139996318571</v>
+        <v>277.1008571982853</v>
       </c>
       <c r="F35" t="n">
-        <v>285.7596753013068</v>
+        <v>302.0465328677349</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0672932786386</v>
+        <v>310.4732246411585</v>
       </c>
       <c r="H35" t="n">
-        <v>227.2393578792707</v>
+        <v>234.6452892417906</v>
       </c>
       <c r="I35" t="n">
-        <v>90.41812553350714</v>
+        <v>105.6463766964294</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.63367370465322</v>
+        <v>45.03960506717317</v>
       </c>
       <c r="S35" t="n">
-        <v>96.78462534974888</v>
+        <v>104.1905567122688</v>
       </c>
       <c r="T35" t="n">
-        <v>110.8604053276349</v>
+        <v>95.69998420592401</v>
       </c>
       <c r="U35" t="n">
-        <v>139.11020867134</v>
+        <v>120.8958488392292</v>
       </c>
       <c r="V35" t="n">
-        <v>215.5168142336385</v>
+        <v>197.3024544015276</v>
       </c>
       <c r="W35" t="n">
-        <v>237.0055244809166</v>
+        <v>244.4114558434365</v>
       </c>
       <c r="X35" t="n">
-        <v>257.4956564419726</v>
+        <v>264.9015878044925</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.0024944195571</v>
+        <v>281.4084257820771</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.29773941337088</v>
+        <v>61.70367077589083</v>
       </c>
       <c r="C36" t="n">
-        <v>60.47305475181928</v>
+        <v>67.87898611433923</v>
       </c>
       <c r="D36" t="n">
-        <v>35.20962132814229</v>
+        <v>42.61555269066224</v>
       </c>
       <c r="E36" t="n">
-        <v>45.40963621890448</v>
+        <v>30.2492150971936</v>
       </c>
       <c r="F36" t="n">
-        <v>32.83376815688742</v>
+        <v>40.23969951940737</v>
       </c>
       <c r="G36" t="n">
-        <v>25.10807292671417</v>
+        <v>32.51400428923412</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.405931362519951</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>51.62540706693904</v>
+        <v>66.85365822986131</v>
       </c>
       <c r="T36" t="n">
-        <v>87.92928445832514</v>
+        <v>69.71492462621427</v>
       </c>
       <c r="U36" t="n">
-        <v>104.8250116405702</v>
+        <v>95.49157801236748</v>
       </c>
       <c r="V36" t="n">
-        <v>111.6842167090206</v>
+        <v>127.9710742754488</v>
       </c>
       <c r="W36" t="n">
-        <v>139.4595389244232</v>
+        <v>146.8654702869431</v>
       </c>
       <c r="X36" t="n">
-        <v>93.53754096698101</v>
+        <v>75.32318113487014</v>
       </c>
       <c r="Y36" t="n">
-        <v>84.56632533689972</v>
+        <v>100.8531829033278</v>
       </c>
     </row>
     <row r="37">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.59653594544083</v>
+        <v>75.00246730796079</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01137686213137</v>
+        <v>36.79701703002049</v>
       </c>
       <c r="D37" t="n">
-        <v>36.38002878171589</v>
+        <v>43.78596014423584</v>
       </c>
       <c r="E37" t="n">
-        <v>34.19851841007271</v>
+        <v>19.03809728836183</v>
       </c>
       <c r="F37" t="n">
-        <v>33.18560378643478</v>
+        <v>40.59153514895473</v>
       </c>
       <c r="G37" t="n">
-        <v>55.7555351219623</v>
+        <v>37.54117528985142</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>57.39765963346306</v>
       </c>
       <c r="I37" t="n">
-        <v>43.21503069076182</v>
+        <v>50.62096205328177</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>56.17702093676485</v>
+        <v>46.84358730856214</v>
       </c>
       <c r="S37" t="n">
-        <v>103.9588340000735</v>
+        <v>119.1870851629957</v>
       </c>
       <c r="T37" t="n">
-        <v>106.8292189878769</v>
+        <v>123.116076554305</v>
       </c>
       <c r="U37" t="n">
-        <v>174.0835851199944</v>
+        <v>181.4895164825144</v>
       </c>
       <c r="V37" t="n">
-        <v>131.0212728834234</v>
+        <v>147.3081304498515</v>
       </c>
       <c r="W37" t="n">
-        <v>174.2875541000946</v>
+        <v>181.6934854626145</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>120.8801425150606</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.3492091155983</v>
+        <v>113.7551404781183</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>270.4983974269841</v>
+        <v>277.9043287895041</v>
       </c>
       <c r="C38" t="n">
-        <v>245.2151277341088</v>
+        <v>260.443378897031</v>
       </c>
       <c r="D38" t="n">
-        <v>242.4475973841865</v>
+        <v>249.8535287467064</v>
       </c>
       <c r="E38" t="n">
-        <v>269.6949258357653</v>
+        <v>277.1008571982853</v>
       </c>
       <c r="F38" t="n">
-        <v>294.640601505215</v>
+        <v>302.0465328677349</v>
       </c>
       <c r="G38" t="n">
-        <v>303.0672932786386</v>
+        <v>310.4732246411585</v>
       </c>
       <c r="H38" t="n">
-        <v>227.2393578792707</v>
+        <v>234.6452892417906</v>
       </c>
       <c r="I38" t="n">
-        <v>98.24044533390945</v>
+        <v>105.6463766964294</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.63367370465322</v>
+        <v>19.41931387254234</v>
       </c>
       <c r="S38" t="n">
-        <v>96.78462534974888</v>
+        <v>78.57026551763801</v>
       </c>
       <c r="T38" t="n">
-        <v>101.9794791237267</v>
+        <v>92.64604549552402</v>
       </c>
       <c r="U38" t="n">
-        <v>130.2292824674319</v>
+        <v>123.9497875496291</v>
       </c>
       <c r="V38" t="n">
-        <v>215.5168142336385</v>
+        <v>222.9227455961584</v>
       </c>
       <c r="W38" t="n">
-        <v>237.0055244809166</v>
+        <v>244.4114558434365</v>
       </c>
       <c r="X38" t="n">
-        <v>248.6147302380644</v>
+        <v>264.9015878044925</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0024944195571</v>
+        <v>281.4084257820771</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.29773941337088</v>
+        <v>61.70367077589083</v>
       </c>
       <c r="C39" t="n">
-        <v>60.47305475181928</v>
+        <v>42.2586949197084</v>
       </c>
       <c r="D39" t="n">
-        <v>35.20962132814229</v>
+        <v>42.61555269066224</v>
       </c>
       <c r="E39" t="n">
-        <v>36.52871001499631</v>
+        <v>52.81556758142443</v>
       </c>
       <c r="F39" t="n">
-        <v>32.83376815688742</v>
+        <v>40.23969951940737</v>
       </c>
       <c r="G39" t="n">
-        <v>25.10807292671417</v>
+        <v>17.35358316752324</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>51.62540706693904</v>
+        <v>41.23336703523048</v>
       </c>
       <c r="T39" t="n">
-        <v>87.92928445832514</v>
+        <v>95.33521582084509</v>
       </c>
       <c r="U39" t="n">
-        <v>113.7059378444784</v>
+        <v>95.49157801236748</v>
       </c>
       <c r="V39" t="n">
-        <v>120.5651429129288</v>
+        <v>127.9710742754488</v>
       </c>
       <c r="W39" t="n">
-        <v>139.4595389244232</v>
+        <v>146.8654702869431</v>
       </c>
       <c r="X39" t="n">
-        <v>84.65661476307284</v>
+        <v>100.943472329501</v>
       </c>
       <c r="Y39" t="n">
-        <v>84.56632533689972</v>
+        <v>100.8531829033278</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.77421614503852</v>
+        <v>75.00246730796079</v>
       </c>
       <c r="C40" t="n">
-        <v>55.01137686213137</v>
+        <v>36.79701703002049</v>
       </c>
       <c r="D40" t="n">
-        <v>36.38002878171589</v>
+        <v>18.16566894960501</v>
       </c>
       <c r="E40" t="n">
-        <v>34.19851841007271</v>
+        <v>19.03809728836183</v>
       </c>
       <c r="F40" t="n">
-        <v>33.18560378643478</v>
+        <v>40.59153514895473</v>
       </c>
       <c r="G40" t="n">
-        <v>55.7555351219623</v>
+        <v>63.16146648448225</v>
       </c>
       <c r="H40" t="n">
-        <v>49.99172827094311</v>
+        <v>57.39765963346306</v>
       </c>
       <c r="I40" t="n">
-        <v>43.21503069076182</v>
+        <v>50.62096205328177</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.17702093676485</v>
+        <v>72.46387850319297</v>
       </c>
       <c r="S40" t="n">
-        <v>102.9002275965676</v>
+        <v>119.1870851629957</v>
       </c>
       <c r="T40" t="n">
-        <v>115.710145191785</v>
+        <v>123.116076554305</v>
       </c>
       <c r="U40" t="n">
-        <v>165.2026589160862</v>
+        <v>181.4895164825144</v>
       </c>
       <c r="V40" t="n">
-        <v>139.9021990873316</v>
+        <v>147.3081304498515</v>
       </c>
       <c r="W40" t="n">
-        <v>174.2875541000946</v>
+        <v>181.6934854626145</v>
       </c>
       <c r="X40" t="n">
-        <v>113.4742111525407</v>
+        <v>120.8801425150606</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.3492091155983</v>
+        <v>88.13484928348745</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>349.1338289771711</v>
+        <v>356.539760339691</v>
       </c>
       <c r="C41" t="n">
-        <v>331.6728790846981</v>
+        <v>313.4585192525872</v>
       </c>
       <c r="D41" t="n">
-        <v>321.0830289343735</v>
+        <v>302.8686691022626</v>
       </c>
       <c r="E41" t="n">
-        <v>348.3303573859523</v>
+        <v>355.7362887484722</v>
       </c>
       <c r="F41" t="n">
-        <v>373.276033055402</v>
+        <v>380.6819644179219</v>
       </c>
       <c r="G41" t="n">
-        <v>381.7027248288256</v>
+        <v>389.1086561913455</v>
       </c>
       <c r="H41" t="n">
-        <v>305.8747894294577</v>
+        <v>287.6604295973468</v>
       </c>
       <c r="I41" t="n">
-        <v>176.8758768840965</v>
+        <v>184.2818082466164</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.4467854544379</v>
+        <v>123.6750366173602</v>
       </c>
       <c r="S41" t="n">
-        <v>175.4200568999359</v>
+        <v>160.259635778225</v>
       </c>
       <c r="T41" t="n">
-        <v>189.4958368778219</v>
+        <v>196.9017682403419</v>
       </c>
       <c r="U41" t="n">
-        <v>217.7456402215271</v>
+        <v>225.151571584047</v>
       </c>
       <c r="V41" t="n">
-        <v>294.1522457838255</v>
+        <v>301.5581771463454</v>
       </c>
       <c r="W41" t="n">
-        <v>306.7600298271954</v>
+        <v>323.0468873936235</v>
       </c>
       <c r="X41" t="n">
-        <v>327.2501617882514</v>
+        <v>343.5370193546795</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.756999765836</v>
+        <v>360.0438573322641</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.9331709635579</v>
+        <v>114.718811131447</v>
       </c>
       <c r="C42" t="n">
-        <v>139.1084863020063</v>
+        <v>146.5144176645262</v>
       </c>
       <c r="D42" t="n">
-        <v>113.8450528783293</v>
+        <v>121.2509842408492</v>
       </c>
       <c r="E42" t="n">
-        <v>124.0450677690915</v>
+        <v>131.4509991316114</v>
       </c>
       <c r="F42" t="n">
-        <v>111.4691997070744</v>
+        <v>93.25483987496355</v>
       </c>
       <c r="G42" t="n">
-        <v>94.86257827299302</v>
+        <v>111.1494358394211</v>
       </c>
       <c r="H42" t="n">
-        <v>78.63543155018702</v>
+        <v>63.47501042847612</v>
       </c>
       <c r="I42" t="n">
-        <v>47.97430036470332</v>
+        <v>63.20255152762557</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>66.55782146633369</v>
+        <v>73.96375282885363</v>
       </c>
       <c r="S42" t="n">
-        <v>138.0831584175284</v>
+        <v>145.4890897800483</v>
       </c>
       <c r="T42" t="n">
-        <v>166.5647160085122</v>
+        <v>173.9706473710321</v>
       </c>
       <c r="U42" t="n">
-        <v>192.3413693946654</v>
+        <v>174.1270095625545</v>
       </c>
       <c r="V42" t="n">
-        <v>199.2005744631158</v>
+        <v>206.6065058256358</v>
       </c>
       <c r="W42" t="n">
-        <v>209.214044270702</v>
+        <v>225.5009018371301</v>
       </c>
       <c r="X42" t="n">
-        <v>163.2920463132598</v>
+        <v>179.578903879688</v>
       </c>
       <c r="Y42" t="n">
-        <v>172.0826830909949</v>
+        <v>179.4886144535149</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.2319674956279</v>
+        <v>153.6378988581478</v>
       </c>
       <c r="C43" t="n">
-        <v>124.7658822084102</v>
+        <v>141.0527397748383</v>
       </c>
       <c r="D43" t="n">
-        <v>115.0154603319029</v>
+        <v>122.4213916944229</v>
       </c>
       <c r="E43" t="n">
-        <v>112.8339499602597</v>
+        <v>120.2398813227797</v>
       </c>
       <c r="F43" t="n">
-        <v>111.8210353366218</v>
+        <v>119.2269666991417</v>
       </c>
       <c r="G43" t="n">
-        <v>134.3909666721493</v>
+        <v>141.7968980346693</v>
       </c>
       <c r="H43" t="n">
-        <v>119.746233617222</v>
+        <v>136.0330911836501</v>
       </c>
       <c r="I43" t="n">
-        <v>121.8504622409488</v>
+        <v>129.2563936034688</v>
       </c>
       <c r="J43" t="n">
-        <v>59.75916743036333</v>
+        <v>67.16509879288327</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.56203056538494</v>
+        <v>34.34767073327405</v>
       </c>
       <c r="R43" t="n">
-        <v>134.8124524869519</v>
+        <v>151.09931005338</v>
       </c>
       <c r="S43" t="n">
-        <v>182.5942655502605</v>
+        <v>197.8225167131828</v>
       </c>
       <c r="T43" t="n">
-        <v>194.3455767419721</v>
+        <v>201.751508104492</v>
       </c>
       <c r="U43" t="n">
-        <v>252.7190166701814</v>
+        <v>260.1249480327014</v>
       </c>
       <c r="V43" t="n">
-        <v>218.5376306375186</v>
+        <v>225.9435620000385</v>
       </c>
       <c r="W43" t="n">
-        <v>252.9229856502816</v>
+        <v>234.7086258181707</v>
       </c>
       <c r="X43" t="n">
-        <v>192.1096427027277</v>
+        <v>173.8952828706168</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.9846406657853</v>
+        <v>169.8242195440745</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>349.1338289771711</v>
+        <v>356.539760339691</v>
       </c>
       <c r="C44" t="n">
-        <v>331.6728790846981</v>
+        <v>313.4585192525872</v>
       </c>
       <c r="D44" t="n">
-        <v>321.0830289343735</v>
+        <v>302.8686691022626</v>
       </c>
       <c r="E44" t="n">
-        <v>348.3303573859523</v>
+        <v>355.7362887484722</v>
       </c>
       <c r="F44" t="n">
-        <v>373.276033055402</v>
+        <v>380.6819644179219</v>
       </c>
       <c r="G44" t="n">
-        <v>381.7027248288256</v>
+        <v>389.1086561913455</v>
       </c>
       <c r="H44" t="n">
-        <v>305.8747894294577</v>
+        <v>313.2807207919776</v>
       </c>
       <c r="I44" t="n">
-        <v>169.0535570836942</v>
+        <v>161.7154557623856</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>107.3881790509321</v>
+        <v>123.6750366173602</v>
       </c>
       <c r="S44" t="n">
-        <v>175.4200568999359</v>
+        <v>182.8259882624558</v>
       </c>
       <c r="T44" t="n">
-        <v>180.6149106739138</v>
+        <v>196.9017682403419</v>
       </c>
       <c r="U44" t="n">
-        <v>217.7456402215271</v>
+        <v>225.151571584047</v>
       </c>
       <c r="V44" t="n">
-        <v>294.1522457838255</v>
+        <v>301.5581771463454</v>
       </c>
       <c r="W44" t="n">
-        <v>306.7600298271954</v>
+        <v>297.4265961989926</v>
       </c>
       <c r="X44" t="n">
-        <v>336.1310879921596</v>
+        <v>343.5370193546795</v>
       </c>
       <c r="Y44" t="n">
-        <v>352.6379259697442</v>
+        <v>360.0438573322641</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.9331709635579</v>
+        <v>114.718811131447</v>
       </c>
       <c r="C45" t="n">
-        <v>130.2275600980981</v>
+        <v>146.5144176645262</v>
       </c>
       <c r="D45" t="n">
-        <v>113.8450528783293</v>
+        <v>95.63069304621843</v>
       </c>
       <c r="E45" t="n">
-        <v>115.1641415651833</v>
+        <v>108.8846466473806</v>
       </c>
       <c r="F45" t="n">
-        <v>111.4691997070744</v>
+        <v>118.8751310695944</v>
       </c>
       <c r="G45" t="n">
-        <v>103.7435044769012</v>
+        <v>111.1494358394211</v>
       </c>
       <c r="H45" t="n">
-        <v>78.63543155018702</v>
+        <v>86.04136291270696</v>
       </c>
       <c r="I45" t="n">
-        <v>46.91569396119746</v>
+        <v>63.20255152762557</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>66.55782146633369</v>
+        <v>73.96375282885363</v>
       </c>
       <c r="S45" t="n">
-        <v>138.0831584175284</v>
+        <v>145.4890897800483</v>
       </c>
       <c r="T45" t="n">
-        <v>166.5647160085122</v>
+        <v>173.9706473710321</v>
       </c>
       <c r="U45" t="n">
-        <v>192.3413693946654</v>
+        <v>199.7473007571853</v>
       </c>
       <c r="V45" t="n">
-        <v>199.2005744631158</v>
+        <v>180.9862146310049</v>
       </c>
       <c r="W45" t="n">
-        <v>218.0949704746102</v>
+        <v>225.5009018371301</v>
       </c>
       <c r="X45" t="n">
-        <v>172.172972517168</v>
+        <v>179.578903879688</v>
       </c>
       <c r="Y45" t="n">
-        <v>164.2603632905926</v>
+        <v>179.4886144535149</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>146.2319674956279</v>
+        <v>153.6378988581478</v>
       </c>
       <c r="C46" t="n">
-        <v>133.6468084123184</v>
+        <v>141.0527397748383</v>
       </c>
       <c r="D46" t="n">
-        <v>115.0154603319029</v>
+        <v>122.4213916944229</v>
       </c>
       <c r="E46" t="n">
-        <v>112.8339499602597</v>
+        <v>120.2398813227797</v>
       </c>
       <c r="F46" t="n">
-        <v>111.8210353366218</v>
+        <v>119.2269666991417</v>
       </c>
       <c r="G46" t="n">
-        <v>134.3909666721493</v>
+        <v>141.7968980346693</v>
       </c>
       <c r="H46" t="n">
-        <v>128.6271598211301</v>
+        <v>136.0330911836501</v>
       </c>
       <c r="I46" t="n">
-        <v>121.8504622409488</v>
+        <v>129.2563936034688</v>
       </c>
       <c r="J46" t="n">
-        <v>51.93684762996102</v>
+        <v>67.16509879288327</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.68110436147677</v>
+        <v>34.34767073327405</v>
       </c>
       <c r="R46" t="n">
-        <v>134.8124524869519</v>
+        <v>125.4790188587492</v>
       </c>
       <c r="S46" t="n">
-        <v>181.5356591467547</v>
+        <v>197.8225167131828</v>
       </c>
       <c r="T46" t="n">
-        <v>194.3455767419721</v>
+        <v>201.751508104492</v>
       </c>
       <c r="U46" t="n">
-        <v>252.7190166701814</v>
+        <v>234.5046568380705</v>
       </c>
       <c r="V46" t="n">
-        <v>218.5376306375186</v>
+        <v>203.3772095158077</v>
       </c>
       <c r="W46" t="n">
-        <v>252.9229856502816</v>
+        <v>260.3289170128015</v>
       </c>
       <c r="X46" t="n">
-        <v>192.1096427027277</v>
+        <v>199.5155740652476</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.9846406657853</v>
+        <v>192.3905720283053</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>512789.2641944723</v>
+        <v>525926.6979073191</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491109.3958104674</v>
+        <v>504246.8295233141</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491109.3958104674</v>
+        <v>504246.829523314</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>536579.7405376466</v>
+        <v>535128.9706526016</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>536579.7405376466</v>
+        <v>535128.9706526014</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>536579.7405376466</v>
+        <v>535128.9706526017</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>374785.5725276511</v>
+        <v>372474.2334182813</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>374785.5725276511</v>
+        <v>372474.2334182812</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>716866.7963774087</v>
+      </c>
+      <c r="C2" t="n">
+        <v>716866.7963774086</v>
+      </c>
+      <c r="D2" t="n">
         <v>716866.7963774084</v>
-      </c>
-      <c r="C2" t="n">
-        <v>716866.796377409</v>
-      </c>
-      <c r="D2" t="n">
-        <v>716866.7963774087</v>
       </c>
       <c r="E2" t="n">
         <v>376632.0377523155</v>
@@ -26328,34 +26328,34 @@
         <v>376632.0377523155</v>
       </c>
       <c r="G2" t="n">
-        <v>398311.9061363206</v>
+        <v>398311.9061363208</v>
       </c>
       <c r="H2" t="n">
-        <v>398311.9061363206</v>
+        <v>398311.9061363207</v>
       </c>
       <c r="I2" t="n">
-        <v>402714.8224584701</v>
+        <v>411013.7342665236</v>
       </c>
       <c r="J2" t="n">
-        <v>381034.9540744647</v>
+        <v>389333.8658825182</v>
       </c>
       <c r="K2" t="n">
-        <v>381034.9540744647</v>
+        <v>389333.8658825182</v>
       </c>
       <c r="L2" t="n">
-        <v>426505.2988016442</v>
+        <v>420216.0070118062</v>
       </c>
       <c r="M2" t="n">
-        <v>426505.2988016441</v>
+        <v>420216.0070118062</v>
       </c>
       <c r="N2" t="n">
-        <v>426505.2988016442</v>
+        <v>420216.0070118061</v>
       </c>
       <c r="O2" t="n">
-        <v>264711.1307916489</v>
+        <v>257561.2697774856</v>
       </c>
       <c r="P2" t="n">
-        <v>264711.1307916489</v>
+        <v>257561.2697774856</v>
       </c>
     </row>
     <row r="3">
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2361.624777069465</v>
+        <v>6812.973454767425</v>
       </c>
       <c r="J3" t="n">
-        <v>62908.34524014962</v>
+        <v>62908.3452401496</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26880.01014904755</v>
+        <v>20955.26505903159</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>244604.9698508521</v>
       </c>
       <c r="I4" t="n">
-        <v>247179.7071640217</v>
+        <v>252032.7446345292</v>
       </c>
       <c r="J4" t="n">
-        <v>233037.815648317</v>
+        <v>237890.8531188245</v>
       </c>
       <c r="K4" t="n">
-        <v>233037.815648317</v>
+        <v>237890.8531188245</v>
       </c>
       <c r="L4" t="n">
-        <v>262698.3592883275</v>
+        <v>258035.4352669928</v>
       </c>
       <c r="M4" t="n">
-        <v>262698.3592883276</v>
+        <v>258035.4352669928</v>
       </c>
       <c r="N4" t="n">
-        <v>262698.3592883275</v>
+        <v>258035.4352669929</v>
       </c>
       <c r="O4" t="n">
-        <v>157159.1774379821</v>
+        <v>151934.8996115139</v>
       </c>
       <c r="P4" t="n">
-        <v>157159.1774379821</v>
+        <v>151934.8996115139</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>8420.168959378556</v>
       </c>
       <c r="I5" t="n">
-        <v>8960.129272576172</v>
+        <v>9977.88266401211</v>
       </c>
       <c r="J5" t="n">
-        <v>8055.445840383231</v>
+        <v>9073.199231819168</v>
       </c>
       <c r="K5" t="n">
-        <v>8055.445840383231</v>
+        <v>9073.199231819168</v>
       </c>
       <c r="L5" t="n">
-        <v>9975.481874715639</v>
+        <v>10370.62602243588</v>
       </c>
       <c r="M5" t="n">
-        <v>9975.481874715639</v>
+        <v>10370.62602243588</v>
       </c>
       <c r="N5" t="n">
-        <v>9975.481874715639</v>
+        <v>10370.62602243588</v>
       </c>
       <c r="O5" t="n">
-        <v>3364.679779722965</v>
+        <v>3759.823927443214</v>
       </c>
       <c r="P5" t="n">
-        <v>3364.679779722965</v>
+        <v>3759.823927443214</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230839.2058284433</v>
+        <v>230795.0700497624</v>
       </c>
       <c r="C6" t="n">
-        <v>230839.2058284438</v>
+        <v>230795.0700497623</v>
       </c>
       <c r="D6" t="n">
-        <v>230839.2058284435</v>
+        <v>230795.0700497621</v>
       </c>
       <c r="E6" t="n">
-        <v>67136.1676088504</v>
+        <v>57371.03872659525</v>
       </c>
       <c r="F6" t="n">
-        <v>138653.4738899825</v>
+        <v>128888.3450077272</v>
       </c>
       <c r="G6" t="n">
-        <v>136677.8062851075</v>
+        <v>127532.1022138241</v>
       </c>
       <c r="H6" t="n">
-        <v>145286.76732609</v>
+        <v>136141.0632548064</v>
       </c>
       <c r="I6" t="n">
-        <v>144213.3612448027</v>
+        <v>133407.3388170799</v>
       </c>
       <c r="J6" t="n">
-        <v>77033.34734561488</v>
+        <v>70059.24878461836</v>
       </c>
       <c r="K6" t="n">
-        <v>139941.6925857644</v>
+        <v>132967.594024768</v>
       </c>
       <c r="L6" t="n">
-        <v>126951.4474895535</v>
+        <v>122334.8080456476</v>
       </c>
       <c r="M6" t="n">
-        <v>153831.4576386009</v>
+        <v>143290.0731046792</v>
       </c>
       <c r="N6" t="n">
-        <v>153831.457638601</v>
+        <v>143290.073104679</v>
       </c>
       <c r="O6" t="n">
-        <v>104187.2735739438</v>
+        <v>88699.39541413524</v>
       </c>
       <c r="P6" t="n">
-        <v>104187.2735739438</v>
+        <v>88699.39541413524</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="M2" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="N2" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="O2" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="P2" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
     </row>
     <row r="3">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018701</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.60001268630944</v>
+        <v>26.19408132378949</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018701</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y33" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="34">
@@ -29906,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29954,28 +29954,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30115,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y36" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -30191,28 +30191,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30352,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y39" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="40">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="C40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="D40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="E40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="F40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="G40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="H40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="I40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -30428,28 +30428,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="S40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="T40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="U40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="V40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="W40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="X40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.2354442364965</v>
+        <v>104.8295128739765</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="C41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="D41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="E41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="F41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="G41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="H41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="I41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="S41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="T41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="U41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="V41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="W41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="X41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="Y41" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="C42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="D42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="E42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="F42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="G42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="H42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="I42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="S42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="T42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="U42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="V42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="W42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="X42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="Y42" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
     </row>
     <row r="43">
@@ -30617,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="C43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="D43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="E43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="F43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="G43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="H43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="I43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="J43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -30662,31 +30662,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="R43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="S43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="T43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="U43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="V43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="W43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="X43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="C44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="D44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="E44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="F44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="G44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="H44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="I44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="S44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="T44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="U44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="V44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="W44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="X44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="Y44" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="C45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="D45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="E45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="F45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="G45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="H45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="I45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="S45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="T45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="U45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="V45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="W45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="X45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="Y45" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
     </row>
     <row r="46">
@@ -30854,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="C46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="D46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="E46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="F46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="G46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="H46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="I46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="J46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -30899,31 +30899,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="R46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="S46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="T46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="U46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="V46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="W46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="X46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.60001268630944</v>
+        <v>26.1940813237895</v>
       </c>
     </row>
   </sheetData>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M23" t="n">
-        <v>8.522100902740167</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N23" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O23" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M24" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N24" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O24" t="n">
-        <v>8.522100902740169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M25" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N25" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O25" t="n">
-        <v>8.522100902740169</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M26" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N26" t="n">
-        <v>8.522100902740169</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L27" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M27" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.522100902740169</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>8.522100902740167</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M28" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N28" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O28" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L29" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O29" t="n">
-        <v>8.522100902740169</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N30" t="n">
-        <v>8.522100902740167</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O30" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M31" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N31" t="n">
-        <v>8.522100902740169</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O31" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M32" t="n">
-        <v>8.522100902740167</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O32" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>8.522100902740167</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O33" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P33" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>8.522100902740167</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M34" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N34" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O34" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L35" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>8.522100902740169</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L36" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M36" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N36" t="n">
-        <v>8.522100902740169</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="M37" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N37" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O37" t="n">
-        <v>8.522100902740169</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N38" t="n">
-        <v>8.522100902740169</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M39" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N39" t="n">
-        <v>8.522100902740169</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>8.522100902740167</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M40" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N40" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O40" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.522100902740167</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>8.880926203908174</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N41" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L42" t="n">
-        <v>8.522100902740167</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N42" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P42" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O43" t="n">
-        <v>8.522100902740169</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>8.880926203908174</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.522100902740167</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M44" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N44" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.522100902740167</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L45" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M45" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N45" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>8.880926203908174</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O46" t="n">
-        <v>8.522100902740169</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
